--- a/Documents/boomroosvuur.xlsx
+++ b/Documents/boomroosvuur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Developer\braillemethods\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEF8D11-8265-4EC4-BD1B-004DE3BB1200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E16EFA-243B-47DE-AA9C-07E65138CE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="960" windowWidth="17280" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -45,106 +45,106 @@
     <t>information</t>
   </si>
   <si>
-    <t>boom</t>
-  </si>
-  <si>
-    <t>roos</t>
-  </si>
-  <si>
-    <t>vis</t>
-  </si>
-  <si>
-    <t>vuur</t>
-  </si>
-  <si>
-    <t>pim</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
     <t>?</t>
   </si>
   <si>
-    <t>mus</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>raam</t>
-  </si>
-  <si>
-    <t>kees</t>
-  </si>
-  <si>
-    <t>miep</t>
-  </si>
-  <si>
-    <t>bel</t>
-  </si>
-  <si>
-    <t>boek</t>
-  </si>
-  <si>
-    <t>oom</t>
-  </si>
-  <si>
-    <t>bram</t>
-  </si>
-  <si>
-    <t>eet</t>
-  </si>
-  <si>
-    <t>aap</t>
-  </si>
-  <si>
-    <t>pet</t>
-  </si>
-  <si>
-    <t>bus</t>
-  </si>
-  <si>
-    <t>kar</t>
-  </si>
-  <si>
-    <t>tol</t>
-  </si>
-  <si>
-    <t>net</t>
-  </si>
-  <si>
-    <t>vaar</t>
-  </si>
-  <si>
-    <t>weeg</t>
-  </si>
-  <si>
-    <t>loop</t>
-  </si>
-  <si>
-    <t>ik</t>
-  </si>
-  <si>
-    <t>zit</t>
-  </si>
-  <si>
-    <t>een</t>
-  </si>
-  <si>
-    <t>twee</t>
-  </si>
-  <si>
-    <t>drie</t>
-  </si>
-  <si>
-    <t>vier</t>
-  </si>
-  <si>
-    <t>vijf</t>
-  </si>
-  <si>
-    <t>wim</t>
+    <t>boom roos</t>
+  </si>
+  <si>
+    <t>vis vuur</t>
+  </si>
+  <si>
+    <t>mus pim</t>
+  </si>
+  <si>
+    <t>school raam</t>
+  </si>
+  <si>
+    <t>kees miep</t>
+  </si>
+  <si>
+    <t>bel boek</t>
+  </si>
+  <si>
+    <t>oom bram</t>
+  </si>
+  <si>
+    <t>eet aap</t>
+  </si>
+  <si>
+    <t>pet wim</t>
+  </si>
+  <si>
+    <t>bus kar</t>
+  </si>
+  <si>
+    <t>tol net</t>
+  </si>
+  <si>
+    <t>vaar weeg</t>
+  </si>
+  <si>
+    <t>loop ik</t>
+  </si>
+  <si>
+    <t>zit een</t>
+  </si>
+  <si>
+    <t>twee drie</t>
+  </si>
+  <si>
+    <t>vier vijf</t>
+  </si>
+  <si>
+    <t>boomroos</t>
+  </si>
+  <si>
+    <t>visvuur</t>
+  </si>
+  <si>
+    <t>muspim</t>
+  </si>
+  <si>
+    <t>schoolraam</t>
+  </si>
+  <si>
+    <t>keesmiep</t>
+  </si>
+  <si>
+    <t>belboek</t>
+  </si>
+  <si>
+    <t>oombram</t>
+  </si>
+  <si>
+    <t>eetaap</t>
+  </si>
+  <si>
+    <t>petwim</t>
+  </si>
+  <si>
+    <t>buskar</t>
+  </si>
+  <si>
+    <t>tolnet</t>
+  </si>
+  <si>
+    <t>vaarweeg</t>
+  </si>
+  <si>
+    <t>loopik</t>
+  </si>
+  <si>
+    <t>ziteen</t>
+  </si>
+  <si>
+    <t>tweedrie</t>
+  </si>
+  <si>
+    <t>viervijf</t>
   </si>
 </sst>
 </file>
@@ -197,10 +197,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,13 +462,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -499,19 +499,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -519,19 +519,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -539,19 +539,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -559,19 +559,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -579,19 +579,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -599,19 +599,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -622,16 +622,16 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -642,16 +642,16 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -662,16 +662,16 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -682,16 +682,16 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -702,16 +702,16 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -722,16 +722,16 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -742,16 +742,16 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -762,16 +762,16 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -802,336 +802,16 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
